--- a/src/main/java/com/LilyCargo/TestData/TC9 Upload Data - 38 Records.xlsx
+++ b/src/main/java/com/LilyCargo/TestData/TC9 Upload Data - 38 Records.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17685"/>
+    <workbookView windowWidth="22188" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="229">
   <si>
     <t>SKU</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Airfreight</t>
   </si>
   <si>
-    <t>Paypal</t>
-  </si>
-  <si>
     <t>Fulfilment</t>
   </si>
   <si>
@@ -107,6 +104,18 @@
     <t>HS Percentage</t>
   </si>
   <si>
+    <t>A00 HS %</t>
+  </si>
+  <si>
+    <t>A30 HS %</t>
+  </si>
+  <si>
+    <t>A35 HS %</t>
+  </si>
+  <si>
+    <t>A40 HS %</t>
+  </si>
+  <si>
     <t>HS Euro</t>
   </si>
   <si>
@@ -129,6 +138,9 @@
   </si>
   <si>
     <t>Item CM3</t>
+  </si>
+  <si>
+    <t>DG UN-Code</t>
   </si>
   <si>
     <t>ITEM ID</t>
@@ -1330,7 +1342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1345,14 +1357,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1362,7 +1375,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1702,62 +1715,69 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BC39"/>
+  <dimension ref="A1:BG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.85714285714286" style="2" customWidth="1"/>
-    <col min="2" max="2" width="81.2666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5714285714286" style="2" customWidth="1"/>
-    <col min="10" max="12" width="10.4285714285714" style="2" customWidth="1"/>
-    <col min="13" max="14" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.1428571428571" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.4285714285714" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.1428571428571" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.5714285714286" style="2" customWidth="1"/>
-    <col min="21" max="21" width="6.85714285714286" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.5714285714286" style="2" customWidth="1"/>
-    <col min="23" max="24" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="25" max="25" width="11.5714285714286" style="2" customWidth="1"/>
-    <col min="26" max="27" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="28" max="28" width="14" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="30" max="30" width="14" style="2" customWidth="1"/>
-    <col min="31" max="33" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="34" max="34" width="15.1428571428571" style="2" customWidth="1"/>
-    <col min="35" max="35" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="36" max="36" width="42.4190476190476" style="2" customWidth="1"/>
-    <col min="37" max="37" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="38" max="38" width="16.4285714285714" style="2" customWidth="1"/>
-    <col min="39" max="39" width="15.2857142857143" style="2" customWidth="1"/>
-    <col min="40" max="40" width="22.2761904761905" style="2" customWidth="1"/>
-    <col min="41" max="42" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="43" max="43" width="9.28571428571429" style="2" customWidth="1"/>
-    <col min="44" max="44" width="18.7142857142857" style="2" customWidth="1"/>
-    <col min="45" max="45" width="17.5714285714286" style="2" customWidth="1"/>
-    <col min="46" max="46" width="14" style="3" customWidth="1"/>
-    <col min="47" max="47" width="15.1428571428571" style="3" customWidth="1"/>
-    <col min="48" max="48" width="32.9904761904762" style="3" customWidth="1"/>
-    <col min="49" max="49" width="15.1428571428571" customWidth="1"/>
-    <col min="50" max="51" width="19.9904761904762" customWidth="1"/>
-    <col min="52" max="52" width="23.4190476190476" customWidth="1"/>
-    <col min="53" max="53" width="16.2857142857143" customWidth="1"/>
-    <col min="54" max="55" width="10.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="5.11111111111111" style="2" customWidth="1"/>
+    <col min="2" max="2" width="67" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.7777777777778" style="2" customWidth="1"/>
+    <col min="4" max="6" width="8.22222222222222" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.11111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.2222222222222" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.5555555555556" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.2222222222222" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.11111111111111" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.88888888888889" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.55555555555556" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.1111111111111" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.44444444444444" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.66666666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.11111111111111" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.8888888888889" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.77777777777778" style="2" customWidth="1"/>
+    <col min="22" max="22" width="17" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.7777777777778" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.77777777777778" style="2" customWidth="1"/>
+    <col min="25" max="25" width="14.2222222222222" style="2" customWidth="1"/>
+    <col min="26" max="29" width="9.44444444444444" style="2" customWidth="1"/>
+    <col min="30" max="30" width="8.22222222222222" style="2" customWidth="1"/>
+    <col min="31" max="31" width="13" style="2" customWidth="1"/>
+    <col min="32" max="32" width="11.8888888888889" style="2" customWidth="1"/>
+    <col min="33" max="33" width="10.1111111111111" style="2" customWidth="1"/>
+    <col min="34" max="34" width="9.22222222222222" style="2" customWidth="1"/>
+    <col min="35" max="35" width="11.5555555555556" style="2" customWidth="1"/>
+    <col min="36" max="36" width="11.2222222222222" style="2" customWidth="1"/>
+    <col min="37" max="37" width="9.88888888888889" style="2" customWidth="1"/>
+    <col min="38" max="39" width="14" style="2" customWidth="1"/>
+    <col min="40" max="40" width="40.6666666666667" style="2" customWidth="1"/>
+    <col min="41" max="41" width="7.33333333333333" style="2" customWidth="1"/>
+    <col min="42" max="42" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="43" max="43" width="12.8888888888889" style="2" customWidth="1"/>
+    <col min="44" max="44" width="21" style="2" customWidth="1"/>
+    <col min="45" max="45" width="9" style="2" customWidth="1"/>
+    <col min="46" max="47" width="11.4444444444444" style="2" customWidth="1"/>
+    <col min="48" max="48" width="12.5555555555556" style="2" customWidth="1"/>
+    <col min="49" max="49" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="50" max="50" width="12" style="3" customWidth="1"/>
+    <col min="51" max="51" width="12.7777777777778" style="3" customWidth="1"/>
+    <col min="52" max="52" width="28.7777777777778" style="3" customWidth="1"/>
+    <col min="53" max="53" width="13.2222222222222" customWidth="1"/>
+    <col min="54" max="54" width="9.55555555555556" customWidth="1"/>
+    <col min="55" max="55" width="20.1111111111111" customWidth="1"/>
+    <col min="56" max="56" width="19.6666666666667" customWidth="1"/>
+    <col min="57" max="57" width="11.1111111111111" customWidth="1"/>
+    <col min="58" max="58" width="6.55555555555556" customWidth="1"/>
+    <col min="59" max="59" width="7.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:55">
+    <row r="1" s="1" customFormat="1" spans="1:59">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1833,16 +1853,16 @@
       <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="4" t="s">
@@ -1869,7 +1889,7 @@
       <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="4" t="s">
@@ -1905,7 +1925,7 @@
       <c r="AW1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AX1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="AY1" s="4" t="s">
@@ -1917,16 +1937,28 @@
       <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="6" t="s">
         <v>53</v>
       </c>
       <c r="BC1" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="2:52">
+    <row r="2" spans="2:56">
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>3919908099</v>
@@ -1968,114 +2000,121 @@
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="Q2" s="5">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="R2" s="5">
         <v>0</v>
       </c>
       <c r="S2" s="5">
-        <v>0</v>
+        <v>0.334</v>
       </c>
       <c r="T2" s="5">
-        <v>0.334</v>
+        <v>0</v>
       </c>
       <c r="U2" s="5">
-        <v>0</v>
+        <v>35.616</v>
       </c>
       <c r="V2" s="5">
-        <v>35.616</v>
+        <v>25.8</v>
       </c>
       <c r="W2" s="5">
-        <v>25.8</v>
+        <v>15.477</v>
       </c>
       <c r="X2" s="5">
-        <v>15.477</v>
-      </c>
-      <c r="Y2" s="5">
         <v>20.139</v>
       </c>
-      <c r="Z2" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="AA2" s="5">
+      <c r="Y2" s="7">
+        <v>85.3</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>62.1</v>
+      </c>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="AD2" s="5">
         <v>0.337</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AE2" s="8">
         <v>19.802</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AF2" s="5">
         <v>1108.916</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AG2" s="5">
         <v>21</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="2">
+      <c r="AH2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="2">
         <v>1400</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AJ2" s="2">
         <v>1500</v>
       </c>
-      <c r="AH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>0</v>
+      <c r="AK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AT2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AU2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AU2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AW2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AW2" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="2:52">
+    <row r="3" spans="2:56">
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
         <v>3919908099</v>
@@ -2117,114 +2156,121 @@
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="Q3" s="5">
-        <v>4.37</v>
+        <v>0</v>
       </c>
       <c r="R3" s="5">
         <v>0</v>
       </c>
       <c r="S3" s="5">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="T3" s="5">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="U3" s="5">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="V3" s="5">
-        <v>4.58</v>
+        <v>25.8</v>
       </c>
       <c r="W3" s="5">
-        <v>25.8</v>
+        <v>3.865</v>
       </c>
       <c r="X3" s="5">
-        <v>3.865</v>
+        <v>2.996</v>
       </c>
       <c r="Y3" s="5">
-        <v>2.996</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="5">
+        <v>118</v>
+      </c>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>118</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
         <v>0.17</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AE3" s="8">
         <v>2.826</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AF3" s="5">
         <v>1356.679</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AG3" s="5">
         <v>21</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF3" s="2">
+      <c r="AH3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI3" s="2">
         <v>1280</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AJ3" s="2">
         <v>1380</v>
       </c>
-      <c r="AH3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>0</v>
+      <c r="AK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="AN3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD3" t="s">
         <v>72</v>
       </c>
-      <c r="AO3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="4" spans="2:52">
+    <row r="4" spans="2:56">
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2">
         <v>3924100090</v>
@@ -2266,114 +2312,115 @@
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="Q4" s="5">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5">
         <v>0</v>
       </c>
       <c r="S4" s="5">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="T4" s="5">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5">
-        <v>0</v>
+        <v>14.689</v>
       </c>
       <c r="V4" s="5">
-        <v>14.689</v>
+        <v>25.8</v>
       </c>
       <c r="W4" s="5">
-        <v>25.8</v>
+        <v>7.993</v>
       </c>
       <c r="X4" s="5">
-        <v>7.993</v>
+        <v>6.696</v>
       </c>
       <c r="Y4" s="5">
-        <v>6.696</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="AA4" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5">
         <v>0.409</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AE4" s="8">
         <v>6.287</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AF4" s="5">
         <v>1810.784</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AG4" s="5">
         <v>21</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF4" s="2">
+      <c r="AH4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI4" s="2">
         <v>1400</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AJ4" s="2">
         <v>1500</v>
       </c>
-      <c r="AH4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>799793225874</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AJ4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AY4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC4" t="s">
         <v>81</v>
       </c>
-      <c r="AM4" s="2">
-        <v>799793225874</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>68</v>
+      <c r="BD4" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:52">
+    <row r="5" spans="2:56">
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2">
         <v>3926909790</v>
@@ -2415,114 +2462,117 @@
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="Q5" s="5">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="R5" s="5">
         <v>0</v>
       </c>
       <c r="S5" s="5">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="T5" s="5">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="U5" s="5">
-        <v>0</v>
+        <v>17.585</v>
       </c>
       <c r="V5" s="5">
-        <v>17.585</v>
+        <v>25.8</v>
       </c>
       <c r="W5" s="5">
-        <v>25.8</v>
+        <v>7.993</v>
       </c>
       <c r="X5" s="5">
-        <v>7.993</v>
+        <v>9.592</v>
       </c>
       <c r="Y5" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7">
+        <v>42.3</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8">
         <v>9.592</v>
       </c>
-      <c r="Z5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>9.592</v>
-      </c>
-      <c r="AC5" s="5">
+      <c r="AF5" s="5">
         <v>5755.017</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AG5" s="5">
         <v>21</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF5" s="2">
+      <c r="AH5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI5" s="2">
         <v>250</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AJ5" s="2">
         <v>350</v>
       </c>
-      <c r="AH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AL5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ5" t="s">
+      <c r="AW5" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="2:52">
+    <row r="6" spans="2:56">
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2">
         <v>3926909790</v>
@@ -2564,114 +2614,115 @@
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="Q6" s="5">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="R6" s="5">
         <v>0</v>
       </c>
       <c r="S6" s="5">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="5">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U6" s="5">
-        <v>0</v>
+        <v>4.496</v>
       </c>
       <c r="V6" s="5">
-        <v>4.496</v>
+        <v>25.8</v>
       </c>
       <c r="W6" s="5">
-        <v>25.8</v>
+        <v>3.091</v>
       </c>
       <c r="X6" s="5">
-        <v>3.091</v>
+        <v>2.396</v>
       </c>
       <c r="Y6" s="5">
-        <v>2.396</v>
-      </c>
-      <c r="Z6" s="5">
         <v>8</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5">
         <v>0.177</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AE6" s="8">
         <v>2.219</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AF6" s="5">
         <v>110.926</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AG6" s="5">
         <v>21</v>
       </c>
-      <c r="AE6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF6" s="2">
+      <c r="AH6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI6" s="2">
         <v>100</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AJ6" s="2">
         <v>200</v>
       </c>
-      <c r="AH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM6" s="2">
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ6" s="2">
         <v>614158322404</v>
       </c>
-      <c r="AN6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AR6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:56">
+      <c r="B7" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="AS6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:52">
-      <c r="B7" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C7" s="2">
         <v>3926909790</v>
@@ -2713,114 +2764,115 @@
         <v>0</v>
       </c>
       <c r="P7" s="5">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="Q7" s="5">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="R7" s="5">
         <v>0</v>
       </c>
       <c r="S7" s="5">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="T7" s="5">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="U7" s="5">
-        <v>0</v>
+        <v>14.689</v>
       </c>
       <c r="V7" s="5">
-        <v>14.689</v>
+        <v>25.8</v>
       </c>
       <c r="W7" s="5">
-        <v>25.8</v>
+        <v>7.993</v>
       </c>
       <c r="X7" s="5">
-        <v>7.993</v>
+        <v>6.696</v>
       </c>
       <c r="Y7" s="5">
-        <v>6.696</v>
-      </c>
-      <c r="Z7" s="5">
         <v>6.5</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5">
         <v>0.409</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AE7" s="8">
         <v>6.287</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AF7" s="5">
         <v>25.15</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AG7" s="5">
         <v>21</v>
       </c>
-      <c r="AE7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF7" s="2">
+      <c r="AH7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI7" s="2">
         <v>1400</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AJ7" s="2">
         <v>1500</v>
       </c>
-      <c r="AH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>799793225874</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AJ7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AY7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC7" t="s">
         <v>81</v>
       </c>
-      <c r="AM7" s="2">
-        <v>799793225874</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>68</v>
+      <c r="BD7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:52">
+    <row r="8" spans="2:56">
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2">
         <v>4201000090</v>
@@ -2862,114 +2914,115 @@
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="Q8" s="5">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
       </c>
       <c r="S8" s="5">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="T8" s="5">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="U8" s="5">
-        <v>0</v>
+        <v>20.862</v>
       </c>
       <c r="V8" s="5">
-        <v>20.862</v>
+        <v>25.8</v>
       </c>
       <c r="W8" s="5">
-        <v>25.8</v>
+        <v>10.831</v>
       </c>
       <c r="X8" s="5">
-        <v>10.831</v>
+        <v>10.031</v>
       </c>
       <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="8">
         <v>10.031</v>
       </c>
-      <c r="Z8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>10.031</v>
-      </c>
-      <c r="AC8" s="5">
+      <c r="AF8" s="5">
         <v>3129.615</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AG8" s="5">
         <v>21</v>
       </c>
-      <c r="AE8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF8" s="2">
+      <c r="AH8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI8" s="2">
         <v>800</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AJ8" s="2">
         <v>900</v>
       </c>
-      <c r="AH8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM8" s="2">
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ8" s="2">
         <v>812355034315</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AR8" s="2">
         <v>10684</v>
       </c>
-      <c r="AO8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS8" s="7" t="s">
+      <c r="AS8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ8" t="s">
+      <c r="AT8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW8" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="9" spans="2:52">
+    <row r="9" spans="2:56">
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2">
         <v>4908900000</v>
@@ -3011,114 +3064,115 @@
         <v>0</v>
       </c>
       <c r="P9" s="5">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="Q9" s="5">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="R9" s="5">
         <v>0</v>
       </c>
       <c r="S9" s="5">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="T9" s="5">
-        <v>0.363</v>
+        <v>0</v>
       </c>
       <c r="U9" s="5">
-        <v>0</v>
+        <v>18.754</v>
       </c>
       <c r="V9" s="5">
-        <v>18.754</v>
+        <v>25.8</v>
       </c>
       <c r="W9" s="5">
-        <v>25.8</v>
+        <v>9.799</v>
       </c>
       <c r="X9" s="5">
-        <v>9.799</v>
+        <v>8.955</v>
       </c>
       <c r="Y9" s="5">
-        <v>8.955</v>
-      </c>
-      <c r="Z9" s="5">
         <v>2.7</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5">
         <v>0.235</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AE9" s="8">
         <v>8.72</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AF9" s="5">
         <v>470.855</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AG9" s="5">
         <v>21</v>
       </c>
-      <c r="AE9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF9" s="2">
+      <c r="AH9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI9" s="2">
         <v>620</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AJ9" s="2">
         <v>720</v>
       </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>810029969628</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>11487</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC9" t="s">
         <v>106</v>
       </c>
-      <c r="AM9" s="2">
-        <v>810029969628</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>11487</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV9" s="3" t="s">
+      <c r="BD9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:56">
+      <c r="B10" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:52">
-      <c r="B10" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C10" s="2">
         <v>4909000000</v>
@@ -3160,114 +3214,115 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="Q10" s="5">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="R10" s="5">
         <v>0</v>
       </c>
       <c r="S10" s="5">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="T10" s="5">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="U10" s="5">
-        <v>0</v>
+        <v>14.01</v>
       </c>
       <c r="V10" s="5">
-        <v>14.01</v>
+        <v>25.8</v>
       </c>
       <c r="W10" s="5">
-        <v>25.8</v>
+        <v>7.993</v>
       </c>
       <c r="X10" s="5">
-        <v>7.993</v>
+        <v>6.196</v>
       </c>
       <c r="Y10" s="5">
-        <v>6.196</v>
-      </c>
-      <c r="Z10" s="5">
         <v>2.7</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5">
         <v>0.163</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AE10" s="8">
         <v>6.033</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AF10" s="5">
         <v>723.973</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AG10" s="5">
         <v>21</v>
       </c>
-      <c r="AE10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF10" s="2">
+      <c r="AH10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI10" s="2">
         <v>517</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AJ10" s="2">
         <v>617</v>
       </c>
-      <c r="AH10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM10" s="2">
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ10" s="2">
         <v>840165800592</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AR10" s="2">
         <v>11577</v>
       </c>
-      <c r="AO10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS10" s="7" t="s">
+      <c r="AS10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ10" t="s">
+      <c r="AT10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW10" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="2:52">
+    <row r="11" spans="2:56">
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2">
         <v>6111309000</v>
@@ -3309,114 +3364,115 @@
         <v>0</v>
       </c>
       <c r="P11" s="5">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="Q11" s="5">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="R11" s="5">
         <v>0</v>
       </c>
       <c r="S11" s="5">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="T11" s="5">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="U11" s="5">
-        <v>0</v>
+        <v>14.01</v>
       </c>
       <c r="V11" s="5">
-        <v>14.01</v>
+        <v>25.8</v>
       </c>
       <c r="W11" s="5">
-        <v>25.8</v>
+        <v>7.993</v>
       </c>
       <c r="X11" s="5">
-        <v>7.993</v>
+        <v>6.196</v>
       </c>
       <c r="Y11" s="5">
-        <v>6.196</v>
-      </c>
-      <c r="Z11" s="5">
         <v>2.7</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5">
         <v>0.163</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AE11" s="8">
         <v>6.033</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AF11" s="5">
         <v>542.98</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AG11" s="5">
         <v>21</v>
       </c>
-      <c r="AE11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF11" s="2">
+      <c r="AH11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI11" s="2">
         <v>517</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AJ11" s="2">
         <v>617</v>
       </c>
-      <c r="AH11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM11" s="2">
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ11" s="2">
         <v>840165800592</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AR11" s="2">
         <v>11577</v>
       </c>
-      <c r="AO11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS11" s="7" t="s">
+      <c r="AS11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ11" t="s">
+      <c r="AT11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW11" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="12" spans="2:52">
+    <row r="12" spans="2:56">
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2">
         <v>6113009000</v>
@@ -3458,114 +3514,115 @@
         <v>0</v>
       </c>
       <c r="P12" s="5">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="Q12" s="5">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="R12" s="5">
         <v>0</v>
       </c>
       <c r="S12" s="5">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="T12" s="5">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="U12" s="5">
-        <v>0</v>
+        <v>14.01</v>
       </c>
       <c r="V12" s="5">
-        <v>14.01</v>
+        <v>25.8</v>
       </c>
       <c r="W12" s="5">
-        <v>25.8</v>
+        <v>7.993</v>
       </c>
       <c r="X12" s="5">
-        <v>7.993</v>
+        <v>6.196</v>
       </c>
       <c r="Y12" s="5">
-        <v>6.196</v>
-      </c>
-      <c r="Z12" s="5">
         <v>2.7</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5">
         <v>0.163</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AE12" s="8">
         <v>6.033</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AF12" s="5">
         <v>325.788</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AG12" s="5">
         <v>21</v>
       </c>
-      <c r="AE12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF12" s="2">
+      <c r="AH12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI12" s="2">
         <v>517</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AJ12" s="2">
         <v>617</v>
       </c>
-      <c r="AH12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM12" s="2">
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ12" s="2">
         <v>840165800592</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AR12" s="2">
         <v>11577</v>
       </c>
-      <c r="AO12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS12" s="7" t="s">
+      <c r="AS12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ12" t="s">
+      <c r="AT12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW12" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="13" spans="2:52">
+    <row r="13" spans="2:56">
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2">
         <v>6403999390</v>
@@ -3607,114 +3664,115 @@
         <v>0</v>
       </c>
       <c r="P13" s="5">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="Q13" s="5">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="R13" s="5">
         <v>0</v>
       </c>
       <c r="S13" s="5">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="T13" s="5">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>0</v>
+        <v>14.01</v>
       </c>
       <c r="V13" s="5">
-        <v>14.01</v>
+        <v>25.8</v>
       </c>
       <c r="W13" s="5">
-        <v>25.8</v>
+        <v>7.993</v>
       </c>
       <c r="X13" s="5">
-        <v>7.993</v>
+        <v>6.196</v>
       </c>
       <c r="Y13" s="5">
-        <v>6.196</v>
-      </c>
-      <c r="Z13" s="5">
         <v>2.7</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5">
         <v>0.163</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AE13" s="8">
         <v>6.033</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AF13" s="5">
         <v>325.788</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AG13" s="5">
         <v>21</v>
       </c>
-      <c r="AE13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF13" s="2">
+      <c r="AH13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI13" s="2">
         <v>517</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AJ13" s="2">
         <v>617</v>
       </c>
-      <c r="AH13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM13" s="2">
+      <c r="AK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ13" s="2">
         <v>840165800592</v>
       </c>
-      <c r="AN13" s="2">
+      <c r="AR13" s="2">
         <v>11577</v>
       </c>
-      <c r="AO13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS13" s="7" t="s">
+      <c r="AS13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ13" t="s">
+      <c r="AT13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW13" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="14" spans="2:52">
+    <row r="14" spans="2:56">
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2">
         <v>6704900000</v>
@@ -3756,114 +3814,115 @@
         <v>0</v>
       </c>
       <c r="P14" s="5">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="Q14" s="5">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="R14" s="5">
         <v>0</v>
       </c>
       <c r="S14" s="5">
-        <v>0</v>
+        <v>0.464</v>
       </c>
       <c r="T14" s="5">
-        <v>0.464</v>
+        <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>0</v>
+        <v>10.531</v>
       </c>
       <c r="V14" s="5">
-        <v>10.531</v>
+        <v>25.8</v>
       </c>
       <c r="W14" s="5">
-        <v>25.8</v>
+        <v>6.961</v>
       </c>
       <c r="X14" s="5">
-        <v>6.961</v>
+        <v>5.396</v>
       </c>
       <c r="Y14" s="5">
-        <v>5.396</v>
-      </c>
-      <c r="Z14" s="5">
         <v>2.7</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5">
         <v>0.142</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AE14" s="8">
         <v>5.254</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AF14" s="5">
         <v>283.723</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AG14" s="5">
         <v>21</v>
       </c>
-      <c r="AE14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF14" s="2">
+      <c r="AH14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI14" s="2">
         <v>420</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AJ14" s="2">
         <v>520</v>
       </c>
-      <c r="AH14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL14" s="2">
+      <c r="AK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP14" s="2">
         <v>6974369723433</v>
       </c>
-      <c r="AM14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS14" s="7" t="s">
+      <c r="AQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ14" t="s">
+      <c r="AT14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW14" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="15" spans="2:52">
+    <row r="15" spans="2:56">
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2">
         <v>7117900000</v>
@@ -3905,114 +3964,115 @@
         <v>0</v>
       </c>
       <c r="P15" s="5">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="Q15" s="5">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="R15" s="5">
         <v>0</v>
       </c>
       <c r="S15" s="5">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="T15" s="5">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="U15" s="5">
-        <v>0</v>
+        <v>7.861</v>
       </c>
       <c r="V15" s="5">
-        <v>7.861</v>
+        <v>25.8</v>
       </c>
       <c r="W15" s="5">
-        <v>25.8</v>
+        <v>4.51</v>
       </c>
       <c r="X15" s="5">
-        <v>4.51</v>
+        <v>3.496</v>
       </c>
       <c r="Y15" s="5">
-        <v>3.496</v>
-      </c>
-      <c r="Z15" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5">
         <v>0.157</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AE15" s="8">
         <v>3.339</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AF15" s="5">
         <v>601.032</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AG15" s="5">
         <v>21</v>
       </c>
-      <c r="AE15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF15" s="2">
+      <c r="AH15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI15" s="2">
         <v>330</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AJ15" s="2">
         <v>430</v>
       </c>
-      <c r="AH15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>0</v>
+      <c r="AK15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
-        <v>62</v>
+        <v>124</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>0</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV15" s="3" t="s">
+      <c r="AT15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:56">
+      <c r="B16" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:52">
-      <c r="B16" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C16" s="2">
         <v>8509900000</v>
@@ -4054,114 +4114,115 @@
         <v>0</v>
       </c>
       <c r="P16" s="5">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" s="5">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="R16" s="5">
         <v>0</v>
       </c>
       <c r="S16" s="5">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="T16" s="5">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="U16" s="5">
-        <v>0</v>
+        <v>4.772</v>
       </c>
       <c r="V16" s="5">
-        <v>4.772</v>
+        <v>25.8</v>
       </c>
       <c r="W16" s="5">
-        <v>25.8</v>
+        <v>2.833</v>
       </c>
       <c r="X16" s="5">
-        <v>2.833</v>
+        <v>2.196</v>
       </c>
       <c r="Y16" s="5">
-        <v>2.196</v>
-      </c>
-      <c r="Z16" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5">
         <v>0.099</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AE16" s="8">
         <v>2.097</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AF16" s="5">
         <v>377.536</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AG16" s="5">
         <v>21</v>
       </c>
-      <c r="AE16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF16" s="2">
+      <c r="AH16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI16" s="2">
         <v>200</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AJ16" s="2">
         <v>300</v>
       </c>
-      <c r="AH16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM16" s="2">
+      <c r="AK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ16" s="2">
         <v>674983056370</v>
       </c>
-      <c r="AN16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AR16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ16" t="s">
+      <c r="AT16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW16" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="17" spans="2:52">
+    <row r="17" spans="2:56">
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2">
         <v>8518900000</v>
@@ -4203,114 +4264,115 @@
         <v>0</v>
       </c>
       <c r="P17" s="5">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="Q17" s="5">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="R17" s="5">
         <v>0</v>
       </c>
       <c r="S17" s="5">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="T17" s="5">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="U17" s="5">
-        <v>0</v>
+        <v>8.735</v>
       </c>
       <c r="V17" s="5">
-        <v>8.735</v>
+        <v>25.8</v>
       </c>
       <c r="W17" s="5">
-        <v>25.8</v>
+        <v>4.897</v>
       </c>
       <c r="X17" s="5">
-        <v>4.897</v>
+        <v>3.839</v>
       </c>
       <c r="Y17" s="5">
-        <v>3.839</v>
-      </c>
-      <c r="Z17" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5">
         <v>0.172</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AE17" s="8">
         <v>3.666</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AF17" s="5">
         <v>1759.843</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AG17" s="5">
         <v>21</v>
       </c>
-      <c r="AE17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF17" s="2">
+      <c r="AH17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI17" s="2">
         <v>130</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AJ17" s="2">
         <v>230</v>
       </c>
-      <c r="AH17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="2">
-        <v>0</v>
+      <c r="AK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ17" s="2" t="s">
-        <v>62</v>
+        <v>134</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV17" s="3" t="s">
+      <c r="AT17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:56">
+      <c r="B18" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:52">
-      <c r="B18" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C18" s="2">
         <v>8518900000</v>
@@ -4352,114 +4414,115 @@
         <v>0</v>
       </c>
       <c r="P18" s="5">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Q18" s="5">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
       </c>
       <c r="S18" s="5">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="T18" s="5">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="U18" s="5">
-        <v>0</v>
+        <v>9.634</v>
       </c>
       <c r="V18" s="5">
-        <v>9.634</v>
+        <v>25.8</v>
       </c>
       <c r="W18" s="5">
-        <v>25.8</v>
+        <v>5.413</v>
       </c>
       <c r="X18" s="5">
-        <v>5.413</v>
+        <v>4.221</v>
       </c>
       <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="8">
         <v>4.221</v>
       </c>
-      <c r="Z18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>4.221</v>
-      </c>
-      <c r="AC18" s="5">
+      <c r="AF18" s="5">
         <v>1266.226</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AG18" s="5">
         <v>21</v>
       </c>
-      <c r="AE18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF18" s="2">
+      <c r="AH18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI18" s="2">
         <v>440</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AJ18" s="2">
         <v>540</v>
       </c>
-      <c r="AH18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="2">
-        <v>0</v>
+      <c r="AK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>62</v>
+        <v>138</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>0</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ18" t="s">
+      <c r="AT18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW18" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="19" spans="2:52">
+    <row r="19" spans="2:56">
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C19" s="2">
         <v>9031808000</v>
@@ -4501,114 +4564,115 @@
         <v>0</v>
       </c>
       <c r="P19" s="5">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="Q19" s="5">
-        <v>4.37</v>
+        <v>0</v>
       </c>
       <c r="R19" s="5">
         <v>0</v>
       </c>
       <c r="S19" s="5">
-        <v>0</v>
+        <v>0.163</v>
       </c>
       <c r="T19" s="5">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="U19" s="5">
-        <v>0</v>
+        <v>16.37</v>
       </c>
       <c r="V19" s="5">
-        <v>16.37</v>
+        <v>25.8</v>
       </c>
       <c r="W19" s="5">
-        <v>25.8</v>
+        <v>8.251</v>
       </c>
       <c r="X19" s="5">
-        <v>8.251</v>
+        <v>8.119</v>
       </c>
       <c r="Y19" s="5">
-        <v>8.119</v>
-      </c>
-      <c r="Z19" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5">
         <v>0.364</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AE19" s="8">
         <v>7.754</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AF19" s="5">
         <v>1550.883</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AG19" s="5">
         <v>21</v>
       </c>
-      <c r="AE19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF19" s="2">
+      <c r="AH19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI19" s="2">
         <v>870</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AJ19" s="2">
         <v>970</v>
       </c>
-      <c r="AH19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM19" s="2">
+      <c r="AK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ19" s="2">
         <v>840165838533</v>
       </c>
-      <c r="AN19" s="2">
+      <c r="AR19" s="2">
         <v>13185</v>
       </c>
-      <c r="AO19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS19" s="7" t="s">
+      <c r="AS19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ19" t="s">
+      <c r="AT19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW19" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="20" spans="2:52">
+    <row r="20" spans="2:56">
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C20" s="2">
         <v>9405499090</v>
@@ -4650,114 +4714,115 @@
         <v>0</v>
       </c>
       <c r="P20" s="5">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="Q20" s="5">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="R20" s="5">
         <v>0</v>
       </c>
       <c r="S20" s="5">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="T20" s="5">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="U20" s="5">
-        <v>0</v>
+        <v>18.896</v>
       </c>
       <c r="V20" s="5">
-        <v>18.896</v>
+        <v>25.8</v>
       </c>
       <c r="W20" s="5">
-        <v>25.8</v>
+        <v>9.541</v>
       </c>
       <c r="X20" s="5">
-        <v>9.541</v>
+        <v>9.355</v>
       </c>
       <c r="Y20" s="5">
-        <v>9.355</v>
-      </c>
-      <c r="Z20" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5">
         <v>0.42</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AE20" s="8">
         <v>8.935</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AF20" s="5">
         <v>1393.902</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AG20" s="5">
         <v>21</v>
       </c>
-      <c r="AE20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF20" s="2">
+      <c r="AH20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI20" s="2">
         <v>1150</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AJ20" s="2">
         <v>1250</v>
       </c>
-      <c r="AH20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM20" s="2">
+      <c r="AK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ20" s="2">
         <v>840165835112</v>
       </c>
-      <c r="AN20" s="2">
+      <c r="AR20" s="2">
         <v>13335</v>
       </c>
-      <c r="AO20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS20" s="7" t="s">
+      <c r="AS20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ20" t="s">
+      <c r="AT20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW20" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="21" spans="2:52">
+    <row r="21" spans="2:56">
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2">
         <v>9405499090</v>
@@ -4799,114 +4864,115 @@
         <v>0</v>
       </c>
       <c r="P21" s="5">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="Q21" s="5">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="R21" s="5">
         <v>0</v>
       </c>
       <c r="S21" s="5">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="T21" s="5">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c r="U21" s="5">
-        <v>0</v>
+        <v>10.004</v>
       </c>
       <c r="V21" s="5">
-        <v>10.004</v>
+        <v>25.8</v>
       </c>
       <c r="W21" s="5">
-        <v>25.8</v>
+        <v>6.187</v>
       </c>
       <c r="X21" s="5">
-        <v>6.187</v>
+        <v>4.796</v>
       </c>
       <c r="Y21" s="5">
-        <v>4.796</v>
-      </c>
-      <c r="Z21" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5">
         <v>0.215</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AE21" s="8">
         <v>4.581</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AF21" s="5">
         <v>916.141</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AG21" s="5">
         <v>21</v>
       </c>
-      <c r="AE21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF21" s="2">
+      <c r="AH21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI21" s="2">
         <v>730</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AJ21" s="2">
         <v>830</v>
       </c>
-      <c r="AH21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ21" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM21" s="2">
+      <c r="AK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ21" s="2">
         <v>840332624853</v>
       </c>
-      <c r="AN21" s="2">
+      <c r="AR21" s="2">
         <v>16272</v>
       </c>
-      <c r="AO21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS21" s="7" t="s">
+      <c r="AS21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV21" s="3" t="s">
+      <c r="AT21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:56">
+      <c r="B22" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:52">
-      <c r="B22" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="C22" s="2">
         <v>9503008190</v>
@@ -4948,114 +5014,115 @@
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <v>0</v>
+        <v>5.32</v>
       </c>
       <c r="Q22" s="5">
-        <v>5.32</v>
+        <v>0</v>
       </c>
       <c r="R22" s="5">
         <v>0</v>
       </c>
       <c r="S22" s="5">
-        <v>0</v>
+        <v>0.254</v>
       </c>
       <c r="T22" s="5">
-        <v>0.254</v>
+        <v>0</v>
       </c>
       <c r="U22" s="5">
-        <v>0</v>
+        <v>16.645</v>
       </c>
       <c r="V22" s="5">
-        <v>16.645</v>
+        <v>25.8</v>
       </c>
       <c r="W22" s="5">
-        <v>25.8</v>
+        <v>8.767</v>
       </c>
       <c r="X22" s="5">
-        <v>8.767</v>
+        <v>7.878</v>
       </c>
       <c r="Y22" s="5">
-        <v>7.878</v>
-      </c>
-      <c r="Z22" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5">
         <v>0.354</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AE22" s="8">
         <v>7.524</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AF22" s="5">
         <v>902.919</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AG22" s="5">
         <v>21</v>
       </c>
-      <c r="AE22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF22" s="2">
+      <c r="AH22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI22" s="2">
         <v>1180</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AJ22" s="2">
         <v>1280</v>
       </c>
-      <c r="AH22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM22" s="2">
+      <c r="AK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ22" s="2">
         <v>840332634753</v>
       </c>
-      <c r="AN22" s="2">
+      <c r="AR22" s="2">
         <v>16561</v>
       </c>
-      <c r="AO22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS22" s="7" t="s">
+      <c r="AS22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV22" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ22" t="s">
+      <c r="AT22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW22" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="23" spans="2:52">
+    <row r="23" spans="2:56">
       <c r="B23" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2">
         <v>9505109000</v>
@@ -5097,114 +5164,115 @@
         <v>0</v>
       </c>
       <c r="P23" s="5">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="Q23" s="5">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="R23" s="5">
         <v>0</v>
       </c>
       <c r="S23" s="5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T23" s="5">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="U23" s="5">
-        <v>0</v>
+        <v>8.579</v>
       </c>
       <c r="V23" s="5">
-        <v>8.579</v>
+        <v>25.8</v>
       </c>
       <c r="W23" s="5">
-        <v>25.8</v>
+        <v>4.639</v>
       </c>
       <c r="X23" s="5">
-        <v>4.639</v>
+        <v>3.94</v>
       </c>
       <c r="Y23" s="5">
-        <v>3.94</v>
-      </c>
-      <c r="Z23" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5">
         <v>0.177</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AE23" s="8">
         <v>3.764</v>
       </c>
-      <c r="AC23" s="5">
+      <c r="AF23" s="5">
         <v>722.596</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AG23" s="5">
         <v>21</v>
       </c>
-      <c r="AE23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF23" s="2">
+      <c r="AH23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI23" s="2">
         <v>240</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AJ23" s="2">
         <v>340</v>
       </c>
-      <c r="AH23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM23" s="2">
+      <c r="AK23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ23" s="2">
         <v>840332620459</v>
       </c>
-      <c r="AN23" s="2">
+      <c r="AR23" s="2">
         <v>50056</v>
       </c>
-      <c r="AO23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS23" s="7" t="s">
+      <c r="AS23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV23" s="3" t="s">
+      <c r="AT23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:56">
+      <c r="B24" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:52">
-      <c r="B24" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C24" s="2">
         <v>9506919000</v>
@@ -5246,114 +5314,115 @@
         <v>0</v>
       </c>
       <c r="P24" s="5">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="Q24" s="5">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="R24" s="5">
         <v>0</v>
       </c>
       <c r="S24" s="5">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="T24" s="5">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="U24" s="5">
-        <v>0</v>
+        <v>7.945</v>
       </c>
       <c r="V24" s="5">
-        <v>7.945</v>
+        <v>25.8</v>
       </c>
       <c r="W24" s="5">
-        <v>25.8</v>
+        <v>4.381</v>
       </c>
       <c r="X24" s="5">
-        <v>4.381</v>
+        <v>3.564</v>
       </c>
       <c r="Y24" s="5">
-        <v>3.564</v>
-      </c>
-      <c r="Z24" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5">
         <v>0.16</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AE24" s="8">
         <v>3.404</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AF24" s="5">
         <v>980.306</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AG24" s="5">
         <v>21</v>
       </c>
-      <c r="AE24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF24" s="2">
+      <c r="AH24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI24" s="2">
         <v>150</v>
       </c>
-      <c r="AG24" s="2">
+      <c r="AJ24" s="2">
         <v>250</v>
       </c>
-      <c r="AH24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM24" s="2">
+      <c r="AK24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ24" s="2">
         <v>840332617596</v>
       </c>
-      <c r="AN24" s="2">
+      <c r="AR24" s="2">
         <v>51007</v>
       </c>
-      <c r="AO24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS24" s="7" t="s">
+      <c r="AS24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ24" t="s">
+      <c r="AT24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW24" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="25" spans="2:52">
+    <row r="25" spans="2:56">
       <c r="B25" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C25" s="2">
         <v>9606220000</v>
@@ -5395,114 +5464,115 @@
         <v>0</v>
       </c>
       <c r="P25" s="5">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" s="5">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="R25" s="5">
         <v>0</v>
       </c>
       <c r="S25" s="5">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="T25" s="5">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="U25" s="5">
-        <v>0</v>
+        <v>10.393</v>
       </c>
       <c r="V25" s="5">
-        <v>10.393</v>
+        <v>25.8</v>
       </c>
       <c r="W25" s="5">
-        <v>25.8</v>
+        <v>5.671</v>
       </c>
       <c r="X25" s="5">
-        <v>5.671</v>
+        <v>4.722</v>
       </c>
       <c r="Y25" s="5">
-        <v>4.722</v>
-      </c>
-      <c r="Z25" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5">
         <v>0.212</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AE25" s="8">
         <v>4.51</v>
       </c>
-      <c r="AC25" s="5">
+      <c r="AF25" s="5">
         <v>2300.036</v>
       </c>
-      <c r="AD25" s="5">
+      <c r="AG25" s="5">
         <v>21</v>
       </c>
-      <c r="AE25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF25" s="2">
+      <c r="AH25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI25" s="2">
         <v>470</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AJ25" s="2">
         <v>570</v>
       </c>
-      <c r="AH25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM25" s="2">
+      <c r="AK25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ25" s="2">
         <v>810029964562</v>
       </c>
-      <c r="AN25" s="2">
+      <c r="AR25" s="2">
         <v>11147</v>
       </c>
-      <c r="AO25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS25" s="7" t="s">
+      <c r="AS25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV25" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ25" t="s">
+      <c r="AT25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW25" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="26" spans="2:52">
+    <row r="26" spans="2:56">
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C26" s="2">
         <v>9031808000</v>
@@ -5544,114 +5614,115 @@
         <v>0</v>
       </c>
       <c r="P26" s="5">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Q26" s="5">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="R26" s="5">
         <v>0</v>
       </c>
       <c r="S26" s="5">
-        <v>0</v>
+        <v>0.093</v>
       </c>
       <c r="T26" s="5">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="U26" s="5">
-        <v>0</v>
+        <v>10.932</v>
       </c>
       <c r="V26" s="5">
-        <v>10.932</v>
+        <v>25.8</v>
       </c>
       <c r="W26" s="5">
-        <v>25.8</v>
+        <v>5.929</v>
       </c>
       <c r="X26" s="5">
-        <v>5.929</v>
+        <v>5.003</v>
       </c>
       <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="8">
         <v>5.003</v>
       </c>
-      <c r="Z26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="6">
-        <v>5.003</v>
-      </c>
-      <c r="AC26" s="5">
+      <c r="AF26" s="5">
         <v>3001.957</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AG26" s="5">
         <v>21</v>
       </c>
-      <c r="AE26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF26" s="2">
+      <c r="AH26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI26" s="2">
         <v>700</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AJ26" s="2">
         <v>800</v>
       </c>
-      <c r="AH26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM26" s="2">
+      <c r="AK26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ26" s="2">
         <v>840165803685</v>
       </c>
-      <c r="AN26" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ26" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AR26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ26" t="s">
+      <c r="AT26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW26" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="27" spans="2:52">
+    <row r="27" spans="2:56">
       <c r="B27" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2">
         <v>8518900000</v>
@@ -5693,114 +5764,115 @@
         <v>0</v>
       </c>
       <c r="P27" s="5">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="Q27" s="5">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="R27" s="5">
         <v>0</v>
       </c>
       <c r="S27" s="5">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="T27" s="5">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="U27" s="5">
-        <v>0</v>
+        <v>12.397</v>
       </c>
       <c r="V27" s="5">
-        <v>12.397</v>
+        <v>25.8</v>
       </c>
       <c r="W27" s="5">
-        <v>25.8</v>
+        <v>6.187</v>
       </c>
       <c r="X27" s="5">
-        <v>6.187</v>
+        <v>6.21</v>
       </c>
       <c r="Y27" s="5">
-        <v>6.21</v>
-      </c>
-      <c r="Z27" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA27" s="5">
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5">
         <v>0.279</v>
       </c>
-      <c r="AB27" s="6">
+      <c r="AE27" s="8">
         <v>5.931</v>
       </c>
-      <c r="AC27" s="5">
+      <c r="AF27" s="5">
         <v>2348.724</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AG27" s="5">
         <v>21</v>
       </c>
-      <c r="AE27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF27" s="2">
+      <c r="AH27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI27" s="2">
         <v>281</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AJ27" s="2">
         <v>381</v>
       </c>
-      <c r="AH27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ27" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL27" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM27" s="2">
+      <c r="AK27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ27" s="2">
         <v>840165821252</v>
       </c>
-      <c r="AN27" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ27" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AR27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ27" t="s">
+      <c r="AT27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW27" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="28" spans="2:52">
+    <row r="28" spans="2:56">
       <c r="B28" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C28" s="2">
         <v>3919908099</v>
@@ -5842,114 +5914,115 @@
         <v>0</v>
       </c>
       <c r="P28" s="5">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Q28" s="5">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="R28" s="5">
         <v>0</v>
       </c>
       <c r="S28" s="5">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="T28" s="5">
-        <v>0.108</v>
+        <v>0</v>
       </c>
       <c r="U28" s="5">
-        <v>0</v>
+        <v>10.992</v>
       </c>
       <c r="V28" s="5">
-        <v>10.992</v>
+        <v>25.8</v>
       </c>
       <c r="W28" s="5">
-        <v>25.8</v>
+        <v>5.929</v>
       </c>
       <c r="X28" s="5">
-        <v>5.929</v>
+        <v>5.064</v>
       </c>
       <c r="Y28" s="5">
-        <v>5.064</v>
-      </c>
-      <c r="Z28" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA28" s="5">
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5">
         <v>0.227</v>
       </c>
-      <c r="AB28" s="6">
+      <c r="AE28" s="8">
         <v>4.836</v>
       </c>
-      <c r="AC28" s="5">
+      <c r="AF28" s="5">
         <v>967.257</v>
       </c>
-      <c r="AD28" s="5">
+      <c r="AG28" s="5">
         <v>21</v>
       </c>
-      <c r="AE28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF28" s="2">
+      <c r="AH28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI28" s="2">
         <v>338.4</v>
       </c>
-      <c r="AG28" s="2">
+      <c r="AJ28" s="2">
         <v>438.4</v>
       </c>
-      <c r="AH28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ28" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL28" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM28" s="2">
+      <c r="AK28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ28" s="2">
         <v>840165817729</v>
       </c>
-      <c r="AN28" s="2">
+      <c r="AR28" s="2">
         <v>12291</v>
       </c>
-      <c r="AO28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS28" s="7" t="s">
+      <c r="AS28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ28" t="s">
+      <c r="AT28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW28" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ28" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="29" spans="2:52">
+    <row r="29" spans="2:56">
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2">
         <v>9405499090</v>
@@ -5991,114 +6064,115 @@
         <v>0</v>
       </c>
       <c r="P29" s="5">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="Q29" s="5">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="R29" s="5">
         <v>0</v>
       </c>
       <c r="S29" s="5">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="T29" s="5">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="U29" s="5">
-        <v>0</v>
+        <v>14.01</v>
       </c>
       <c r="V29" s="5">
-        <v>14.01</v>
+        <v>25.8</v>
       </c>
       <c r="W29" s="5">
-        <v>25.8</v>
+        <v>7.993</v>
       </c>
       <c r="X29" s="5">
-        <v>7.993</v>
+        <v>6.196</v>
       </c>
       <c r="Y29" s="5">
-        <v>6.196</v>
-      </c>
-      <c r="Z29" s="5">
         <v>2.7</v>
       </c>
-      <c r="AA29" s="5">
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5">
         <v>0.163</v>
       </c>
-      <c r="AB29" s="6">
+      <c r="AE29" s="8">
         <v>6.033</v>
       </c>
-      <c r="AC29" s="5">
+      <c r="AF29" s="5">
         <v>2461.507</v>
       </c>
-      <c r="AD29" s="5">
+      <c r="AG29" s="5">
         <v>21</v>
       </c>
-      <c r="AE29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF29" s="2">
+      <c r="AH29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI29" s="2">
         <v>517</v>
       </c>
-      <c r="AG29" s="2">
+      <c r="AJ29" s="2">
         <v>617</v>
       </c>
-      <c r="AH29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM29" s="2">
+      <c r="AK29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ29" s="2">
         <v>840165800592</v>
       </c>
-      <c r="AN29" s="2">
+      <c r="AR29" s="2">
         <v>11577</v>
       </c>
-      <c r="AO29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS29" s="7" t="s">
+      <c r="AS29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV29" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ29" t="s">
+      <c r="AT29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW29" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="30" spans="2:52">
+    <row r="30" spans="2:56">
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C30" s="2">
         <v>4201000090</v>
@@ -6140,114 +6214,115 @@
         <v>0</v>
       </c>
       <c r="P30" s="5">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="Q30" s="5">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="R30" s="5">
         <v>0</v>
       </c>
       <c r="S30" s="5">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="T30" s="5">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="U30" s="5">
-        <v>0</v>
+        <v>14.01</v>
       </c>
       <c r="V30" s="5">
-        <v>14.01</v>
+        <v>25.8</v>
       </c>
       <c r="W30" s="5">
-        <v>25.8</v>
+        <v>7.993</v>
       </c>
       <c r="X30" s="5">
-        <v>7.993</v>
+        <v>6.196</v>
       </c>
       <c r="Y30" s="5">
-        <v>6.196</v>
-      </c>
-      <c r="Z30" s="5">
         <v>2.7</v>
       </c>
-      <c r="AA30" s="5">
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5">
         <v>0.163</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AE30" s="8">
         <v>6.033</v>
       </c>
-      <c r="AC30" s="5">
+      <c r="AF30" s="5">
         <v>723.973</v>
       </c>
-      <c r="AD30" s="5">
+      <c r="AG30" s="5">
         <v>21</v>
       </c>
-      <c r="AE30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF30" s="2">
+      <c r="AH30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI30" s="2">
         <v>517</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AJ30" s="2">
         <v>617</v>
       </c>
-      <c r="AH30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM30" s="2">
+      <c r="AK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ30" s="2">
         <v>840165800592</v>
       </c>
-      <c r="AN30" s="2">
+      <c r="AR30" s="2">
         <v>11577</v>
       </c>
-      <c r="AO30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS30" s="7" t="s">
+      <c r="AS30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV30" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ30" t="s">
+      <c r="AT30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW30" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ30" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="31" spans="2:52">
+    <row r="31" spans="2:56">
       <c r="B31" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C31" s="2">
         <v>9506919000</v>
@@ -6289,114 +6364,115 @@
         <v>0</v>
       </c>
       <c r="P31" s="5">
-        <v>0</v>
+        <v>6.36</v>
       </c>
       <c r="Q31" s="5">
-        <v>6.36</v>
+        <v>0</v>
       </c>
       <c r="R31" s="5">
         <v>0</v>
       </c>
       <c r="S31" s="5">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="T31" s="5">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="U31" s="5">
-        <v>0</v>
+        <v>21.543</v>
       </c>
       <c r="V31" s="5">
-        <v>21.543</v>
+        <v>25.8</v>
       </c>
       <c r="W31" s="5">
-        <v>25.8</v>
+        <v>11.091</v>
       </c>
       <c r="X31" s="5">
-        <v>11.091</v>
+        <v>10.452</v>
       </c>
       <c r="Y31" s="5">
-        <v>10.452</v>
-      </c>
-      <c r="Z31" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA31" s="5">
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5">
         <v>0.469</v>
       </c>
-      <c r="AB31" s="6">
+      <c r="AE31" s="8">
         <v>9.983</v>
       </c>
-      <c r="AC31" s="5">
+      <c r="AF31" s="5">
         <v>8924.408</v>
       </c>
-      <c r="AD31" s="5">
+      <c r="AG31" s="5">
         <v>21</v>
       </c>
-      <c r="AE31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF31" s="2">
+      <c r="AH31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI31" s="2">
         <v>1550</v>
       </c>
-      <c r="AG31" s="2">
+      <c r="AJ31" s="2">
         <v>1650</v>
       </c>
-      <c r="AH31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ31" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM31" s="2">
+      <c r="AK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ31" s="2">
         <v>840165849560</v>
       </c>
-      <c r="AN31" s="2">
+      <c r="AR31" s="2">
         <v>50018</v>
       </c>
-      <c r="AO31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS31" s="7" t="s">
+      <c r="AS31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ31" t="s">
+      <c r="AT31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW31" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ31" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="32" spans="2:52">
+    <row r="32" spans="2:56">
       <c r="B32" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C32" s="2">
         <v>9405499090</v>
@@ -6438,114 +6514,115 @@
         <v>0</v>
       </c>
       <c r="P32" s="5">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="Q32" s="5">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="R32" s="5">
         <v>0</v>
       </c>
       <c r="S32" s="5">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="T32" s="5">
-        <v>0.402</v>
+        <v>0</v>
       </c>
       <c r="U32" s="5">
-        <v>0</v>
+        <v>19.413</v>
       </c>
       <c r="V32" s="5">
-        <v>19.413</v>
+        <v>25.8</v>
       </c>
       <c r="W32" s="5">
-        <v>25.8</v>
+        <v>10.317</v>
       </c>
       <c r="X32" s="5">
-        <v>10.317</v>
+        <v>9.096</v>
       </c>
       <c r="Y32" s="5">
-        <v>9.096</v>
-      </c>
-      <c r="Z32" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA32" s="5">
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5">
         <v>0.408</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AE32" s="8">
         <v>8.687</v>
       </c>
-      <c r="AC32" s="5">
+      <c r="AF32" s="5">
         <v>1824.341</v>
       </c>
-      <c r="AD32" s="5">
+      <c r="AG32" s="5">
         <v>21</v>
       </c>
-      <c r="AE32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF32" s="2">
+      <c r="AH32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI32" s="2">
         <v>1200</v>
       </c>
-      <c r="AG32" s="2">
+      <c r="AJ32" s="2">
         <v>1300</v>
       </c>
-      <c r="AH32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ32" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL32" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM32" s="2">
+      <c r="AK32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ32" s="2">
         <v>812355034681</v>
       </c>
-      <c r="AN32" s="2">
+      <c r="AR32" s="2">
         <v>50003</v>
       </c>
-      <c r="AO32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS32" s="7" t="s">
+      <c r="AS32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV32" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ32" t="s">
+      <c r="AT32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW32" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="33" spans="2:52">
+    <row r="33" spans="2:56">
       <c r="B33" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C33" s="2">
         <v>9503008190</v>
@@ -6587,114 +6664,115 @@
         <v>0</v>
       </c>
       <c r="P33" s="5">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="Q33" s="5">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="R33" s="5">
         <v>0</v>
       </c>
       <c r="S33" s="5">
-        <v>0</v>
+        <v>0.367</v>
       </c>
       <c r="T33" s="5">
-        <v>0.367</v>
+        <v>0</v>
       </c>
       <c r="U33" s="5">
-        <v>0</v>
+        <v>22.966</v>
       </c>
       <c r="V33" s="5">
-        <v>22.966</v>
+        <v>25.8</v>
       </c>
       <c r="W33" s="5">
-        <v>25.8</v>
+        <v>11.349</v>
       </c>
       <c r="X33" s="5">
-        <v>11.349</v>
+        <v>11.616</v>
       </c>
       <c r="Y33" s="5">
-        <v>11.616</v>
-      </c>
-      <c r="Z33" s="5">
         <v>12</v>
       </c>
-      <c r="AA33" s="5">
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5">
         <v>1.245</v>
       </c>
-      <c r="AB33" s="6">
+      <c r="AE33" s="8">
         <v>10.372</v>
       </c>
-      <c r="AC33" s="5">
+      <c r="AF33" s="5">
         <v>497.839</v>
       </c>
-      <c r="AD33" s="5">
+      <c r="AG33" s="5">
         <v>21</v>
       </c>
-      <c r="AE33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF33" s="2">
+      <c r="AH33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI33" s="2">
         <v>1170</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AJ33" s="2">
         <v>1270</v>
       </c>
-      <c r="AH33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL33" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM33" s="2">
+      <c r="AK33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ33" s="2">
         <v>812355032366</v>
       </c>
-      <c r="AN33" s="2">
+      <c r="AR33" s="2">
         <v>20099</v>
       </c>
-      <c r="AO33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS33" s="7" t="s">
+      <c r="AS33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV33" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ33" t="s">
+      <c r="AT33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW33" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ33" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="34" spans="2:52">
+    <row r="34" spans="2:56">
       <c r="B34" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C34" s="2">
         <v>9503007590</v>
@@ -6736,114 +6814,115 @@
         <v>0</v>
       </c>
       <c r="P34" s="5">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="Q34" s="5">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="R34" s="5">
         <v>0</v>
       </c>
       <c r="S34" s="5">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="T34" s="5">
-        <v>0.244</v>
+        <v>0</v>
       </c>
       <c r="U34" s="5">
-        <v>0</v>
+        <v>18.223</v>
       </c>
       <c r="V34" s="5">
-        <v>18.223</v>
+        <v>25.8</v>
       </c>
       <c r="W34" s="5">
-        <v>25.8</v>
+        <v>9.283</v>
       </c>
       <c r="X34" s="5">
-        <v>9.283</v>
+        <v>8.94</v>
       </c>
       <c r="Y34" s="5">
-        <v>8.94</v>
-      </c>
-      <c r="Z34" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA34" s="5">
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5">
         <v>0.401</v>
       </c>
-      <c r="AB34" s="6">
+      <c r="AE34" s="8">
         <v>8.539</v>
       </c>
-      <c r="AC34" s="5">
+      <c r="AF34" s="5">
         <v>3483.836</v>
       </c>
-      <c r="AD34" s="5">
+      <c r="AG34" s="5">
         <v>21</v>
       </c>
-      <c r="AE34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF34" s="2">
+      <c r="AH34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI34" s="2">
         <v>1000</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AJ34" s="2">
         <v>1100</v>
       </c>
-      <c r="AH34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL34" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM34" s="2">
+      <c r="AK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ34" s="2">
         <v>810029962322</v>
       </c>
-      <c r="AN34" s="2">
+      <c r="AR34" s="2">
         <v>11013</v>
       </c>
-      <c r="AO34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS34" s="7" t="s">
+      <c r="AS34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV34" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ34" t="s">
+      <c r="AT34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW34" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="AX34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="35" spans="2:49">
+    <row r="35" spans="2:53">
       <c r="B35" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C35" s="2">
         <v>9503008190</v>
@@ -6885,108 +6964,109 @@
         <v>0</v>
       </c>
       <c r="P35" s="5">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="Q35" s="5">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="R35" s="5">
         <v>0</v>
       </c>
       <c r="S35" s="5">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="T35" s="5">
-        <v>0.142</v>
+        <v>0</v>
       </c>
       <c r="U35" s="5">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="V35" s="5">
-        <v>13.75</v>
+        <v>25.8</v>
       </c>
       <c r="W35" s="5">
-        <v>25.8</v>
+        <v>7.477</v>
       </c>
       <c r="X35" s="5">
-        <v>7.477</v>
+        <v>6.273</v>
       </c>
       <c r="Y35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="8">
         <v>6.273</v>
       </c>
-      <c r="Z35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="6">
-        <v>6.273</v>
-      </c>
-      <c r="AC35" s="5">
+      <c r="AF35" s="5">
         <v>4441.194</v>
       </c>
-      <c r="AD35" s="5">
+      <c r="AG35" s="5">
         <v>21</v>
       </c>
-      <c r="AE35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF35" s="2">
+      <c r="AH35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI35" s="2">
         <v>1350</v>
       </c>
-      <c r="AG35" s="2">
+      <c r="AJ35" s="2">
         <v>1450</v>
       </c>
-      <c r="AH35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM35" s="2">
+      <c r="AK35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ35" s="2">
         <v>656554026364</v>
       </c>
-      <c r="AN35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AO35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ35" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AR35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ35" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:53">
+      <c r="B36" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="AS35" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV35" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:49">
-      <c r="B36" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="C36" s="2">
         <v>9503007000</v>
@@ -7028,108 +7108,109 @@
         <v>0</v>
       </c>
       <c r="P36" s="5">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="Q36" s="5">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="R36" s="5">
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="T36" s="5">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="U36" s="5">
-        <v>0</v>
+        <v>13.016</v>
       </c>
       <c r="V36" s="5">
-        <v>13.016</v>
+        <v>25.8</v>
       </c>
       <c r="W36" s="5">
-        <v>25.8</v>
+        <v>6.703</v>
       </c>
       <c r="X36" s="5">
-        <v>6.703</v>
+        <v>6.313</v>
       </c>
       <c r="Y36" s="5">
-        <v>6.313</v>
-      </c>
-      <c r="Z36" s="5">
         <v>4.7</v>
       </c>
-      <c r="AA36" s="5">
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5">
         <v>0.283</v>
       </c>
-      <c r="AB36" s="6">
+      <c r="AE36" s="8">
         <v>6.029</v>
       </c>
-      <c r="AC36" s="5">
+      <c r="AF36" s="5">
         <v>1953.497</v>
       </c>
-      <c r="AD36" s="5">
+      <c r="AG36" s="5">
         <v>21</v>
       </c>
-      <c r="AE36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF36" s="2">
+      <c r="AH36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI36" s="2">
         <v>890</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="AJ36" s="2">
         <v>990</v>
       </c>
-      <c r="AH36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ36" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL36" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM36" s="2">
+      <c r="AK36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ36" s="2">
         <v>812355036357</v>
       </c>
-      <c r="AN36" s="2">
+      <c r="AR36" s="2">
         <v>50001</v>
       </c>
-      <c r="AO36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS36" s="7" t="s">
+      <c r="AS36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV36" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>100</v>
+      <c r="AT36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:49">
+    <row r="37" spans="2:53">
       <c r="B37" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C37" s="2">
         <v>8509400000</v>
@@ -7171,108 +7252,109 @@
         <v>0</v>
       </c>
       <c r="P37" s="5">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="Q37" s="5">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="R37" s="5">
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="T37" s="5">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="U37" s="5">
-        <v>0</v>
+        <v>35.063</v>
       </c>
       <c r="V37" s="5">
-        <v>35.063</v>
+        <v>25.8</v>
       </c>
       <c r="W37" s="5">
-        <v>25.8</v>
+        <v>15.477</v>
       </c>
       <c r="X37" s="5">
-        <v>15.477</v>
+        <v>19.585</v>
       </c>
       <c r="Y37" s="5">
-        <v>19.585</v>
-      </c>
-      <c r="Z37" s="5">
         <v>2.2</v>
       </c>
-      <c r="AA37" s="5">
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5">
         <v>0.422</v>
       </c>
-      <c r="AB37" s="6">
+      <c r="AE37" s="8">
         <v>19.164</v>
       </c>
-      <c r="AC37" s="5">
+      <c r="AF37" s="5">
         <v>5059.169</v>
       </c>
-      <c r="AD37" s="5">
+      <c r="AG37" s="5">
         <v>21</v>
       </c>
-      <c r="AE37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF37" s="2">
+      <c r="AH37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI37" s="2">
         <v>1350</v>
       </c>
-      <c r="AG37" s="2">
+      <c r="AJ37" s="2">
         <v>1450</v>
       </c>
-      <c r="AH37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ37" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM37" s="2">
-        <v>0</v>
+      <c r="AK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="AN37" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AO37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ37" s="2" t="s">
-        <v>62</v>
+        <v>219</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>0</v>
       </c>
       <c r="AR37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV37" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX37" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY37" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ37" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="2:53">
+      <c r="B38" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="AS37" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT37" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AU37" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AV37" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="2:49">
-      <c r="B38" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C38" s="2">
         <v>8509400000</v>
@@ -7314,108 +7396,109 @@
         <v>0</v>
       </c>
       <c r="P38" s="5">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="Q38" s="5">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="R38" s="5">
         <v>0</v>
       </c>
       <c r="S38" s="5">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="T38" s="5">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="U38" s="5">
-        <v>0</v>
+        <v>35.063</v>
       </c>
       <c r="V38" s="5">
-        <v>35.063</v>
+        <v>25.8</v>
       </c>
       <c r="W38" s="5">
-        <v>25.8</v>
+        <v>15.477</v>
       </c>
       <c r="X38" s="5">
-        <v>15.477</v>
+        <v>19.585</v>
       </c>
       <c r="Y38" s="5">
-        <v>19.585</v>
-      </c>
-      <c r="Z38" s="5">
         <v>2.2</v>
       </c>
-      <c r="AA38" s="5">
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5">
         <v>0.422</v>
       </c>
-      <c r="AB38" s="6">
+      <c r="AE38" s="8">
         <v>19.164</v>
       </c>
-      <c r="AC38" s="5">
+      <c r="AF38" s="5">
         <v>5749.056</v>
       </c>
-      <c r="AD38" s="5">
+      <c r="AG38" s="5">
         <v>21</v>
       </c>
-      <c r="AE38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF38" s="2">
+      <c r="AH38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI38" s="2">
         <v>1350</v>
       </c>
-      <c r="AG38" s="2">
+      <c r="AJ38" s="2">
         <v>1450</v>
       </c>
-      <c r="AH38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ38" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="2">
-        <v>0</v>
+      <c r="AK38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="AN38" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AO38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ38" s="2" t="s">
-        <v>62</v>
+        <v>219</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>0</v>
       </c>
       <c r="AR38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX38" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY38" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ38" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="2:53">
+      <c r="B39" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="AS38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT38" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AU38" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AV38" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="2:49">
-      <c r="B39" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C39" s="2">
         <v>8509400000</v>
@@ -7457,103 +7540,104 @@
         <v>0</v>
       </c>
       <c r="P39" s="5">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="Q39" s="5">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="R39" s="5">
         <v>0</v>
       </c>
       <c r="S39" s="5">
-        <v>0</v>
+        <v>0.369</v>
       </c>
       <c r="T39" s="5">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="U39" s="5">
-        <v>0</v>
+        <v>24.817</v>
       </c>
       <c r="V39" s="5">
-        <v>24.817</v>
+        <v>25.8</v>
       </c>
       <c r="W39" s="5">
-        <v>25.8</v>
+        <v>12.123</v>
       </c>
       <c r="X39" s="5">
-        <v>12.123</v>
+        <v>12.694</v>
       </c>
       <c r="Y39" s="5">
-        <v>12.694</v>
-      </c>
-      <c r="Z39" s="5">
         <v>2.2</v>
       </c>
-      <c r="AA39" s="5">
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5">
         <v>0.273</v>
       </c>
-      <c r="AB39" s="6">
+      <c r="AE39" s="8">
         <v>12.42</v>
       </c>
-      <c r="AC39" s="5">
+      <c r="AF39" s="5">
         <v>3279.011</v>
       </c>
-      <c r="AD39" s="5">
+      <c r="AG39" s="5">
         <v>21</v>
       </c>
-      <c r="AE39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF39" s="2">
+      <c r="AH39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI39" s="2">
         <v>1350</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="AJ39" s="2">
         <v>1450</v>
       </c>
-      <c r="AH39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="2" t="s">
+      <c r="AK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN39" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV39" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AJ39" s="2" t="s">
+      <c r="AW39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX39" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="AL39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AO39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR39" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AS39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT39" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AU39" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AV39" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AW39" t="s">
-        <v>218</v>
+      <c r="AY39" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ39" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
